--- a/artfynd/A 64594-2019.xlsx
+++ b/artfynd/A 64594-2019.xlsx
@@ -683,7 +683,7 @@
         <v>112223035</v>
       </c>
       <c r="B2" t="n">
-        <v>57578</v>
+        <v>57610</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
